--- a/PMIS/progress-register.xlsx
+++ b/PMIS/progress-register.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{00161859-2199-4D1E-BFF6-8C6665CBC069}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A576268-84B9-45C6-A3AD-99BFBB14DD8C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="3" r:id="rId1"/>
@@ -3807,7 +3807,7 @@
   <dimension ref="C3:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/PMIS/progress-register.xlsx
+++ b/PMIS/progress-register.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zyzyd\OneDrive\Desktop\PMIS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A576268-84B9-45C6-A3AD-99BFBB14DD8C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFD6743-E0F6-4C67-ACD8-BF2CAFCA4E96}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="128">
   <si>
     <t>Planned Cost</t>
   </si>
@@ -407,61 +407,28 @@
     <t>Row 1</t>
   </si>
   <si>
-    <t>The week number</t>
-  </si>
-  <si>
-    <t>This is the actual amount of time passed from the beginning of the project. Unit of time is week.</t>
-  </si>
-  <si>
-    <t>The total budget considered for the project. The same number is entered for all columns in the beginning of the project. If you change the total budget, the new number will replace the old one from the decision time, to the end of the project.</t>
-  </si>
-  <si>
-    <t>Used for managing deviations.</t>
-  </si>
-  <si>
-    <t>Used for escalating RIC decisions. This information is not used in the calculations here.</t>
-  </si>
-  <si>
-    <t>The amount of PV (Planned Value) in EVM, which works as the planned progress. These values are extracted from the Scheduling Model.</t>
-  </si>
-  <si>
-    <t>The sum of the Planned Total Budget and Cost Plan Limit</t>
-  </si>
-  <si>
-    <t>The sum of the Planned Total Duration and Duration Plan Limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cumulative actual cost of the project until the week. </t>
-  </si>
-  <si>
-    <t>The cumulative Earned Value of the project until the week. This value is extracted from the Schedule Model, after entering the actual data.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Actual Cost and Earned Value are the two fields you enter every week. The rest are your baselines, and do not change so frequently. </t>
-  </si>
-  <si>
-    <t>The amount of time needed to produce the actual progress, based on the planned values. E.g. if your ES is 15 weeks in the 17th week, it means that you've spent 17 weeks to do the job you were supposed to do in 15 weeks; in other words, you're behind schedule.</t>
-  </si>
-  <si>
-    <t>It's an alternative for more common types of percent complete, which are usually EV/PV. This field is Earned_Schedule/Actual_Duration, which in most case, gives a better completion ratio when there are many dependencies in the project.</t>
-  </si>
-  <si>
-    <t>Forecast for the total time of the project.</t>
-  </si>
-  <si>
-    <t>Forecast for the total cost of the project.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The main outputs for the measurement are the two forecasts. They are compared with the targets, and if there are deviations, we should try to recover. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When both deviations are below the Plan Limits, the Project Manager decides how to fix them. Otherwise, the Sponsor decides, and the plans would be revised using the Cycle Planning activities. </t>
-  </si>
-  <si>
-    <t>The total duration considered for the project, similar to the Planned Total Budget.</t>
-  </si>
-  <si>
     <t>The sheets are protected to prevent accidentally overwriting the formulas. You can unprotect them from the menus.</t>
+  </si>
+  <si>
+    <t>Week 1(Jan 20 - Jan27)</t>
+  </si>
+  <si>
+    <t>1 month to have the basic game</t>
+  </si>
+  <si>
+    <t>Not applicable for this project.</t>
+  </si>
+  <si>
+    <t>12 weeks</t>
+  </si>
+  <si>
+    <t>1 week</t>
+  </si>
+  <si>
+    <t>13 weeks</t>
+  </si>
+  <si>
+    <t>Week 1(Jan 27 - Feb 3)</t>
   </si>
 </sst>
 </file>
@@ -555,7 +522,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -607,6 +574,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3804,55 +3772,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:D27"/>
+  <dimension ref="C3:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D3" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>119</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>127</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>34</v>
       </c>
@@ -3860,52 +3833,52 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>115</v>
       </c>
       <c r="D13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>112</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.3">
@@ -3913,20 +3886,15 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D19" t="s">
-        <v>130</v>
+      <c r="D18" s="19">
+        <v>0.05</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.3">
@@ -3934,23 +3902,20 @@
         <v>2</v>
       </c>
       <c r="D21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>32</v>
       </c>
-      <c r="D22" t="s">
-        <v>132</v>
-      </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C23" s="18" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.3">
@@ -3958,21 +3923,10 @@
         <v>30</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -7553,7 +7507,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
@@ -7573,7 +7527,6 @@
     <col min="1" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData/>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
